--- a/build_model/input/PROTEIN_dummy_prot_calc.xlsx
+++ b/build_model/input/PROTEIN_dummy_prot_calc.xlsx
@@ -243,10 +243,10 @@
   <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.66"/>
@@ -274,7 +274,7 @@
         <v>0.0979154139106033</v>
       </c>
       <c r="C2" s="5" t="n">
-        <v>72.08584</v>
+        <v>72.08</v>
       </c>
       <c r="D2" s="6" t="n">
         <f aca="false">B2*$F$2</f>
@@ -295,7 +295,7 @@
         <v>0.038685107235919</v>
       </c>
       <c r="C3" s="5" t="n">
-        <v>158.20156</v>
+        <v>104.14</v>
       </c>
       <c r="D3" s="6" t="n">
         <f aca="false">B3*$F$2</f>
@@ -306,7 +306,7 @@
       </c>
       <c r="F3" s="7" t="n">
         <f aca="false">SUMPRODUCT(C2:C21,D2:D21) / 1000</f>
-        <v>44.0263033997615</v>
+        <v>46.0987325335739</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -317,7 +317,7 @@
         <v>0.0465023050711566</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>115.11058</v>
+        <v>115.08</v>
       </c>
       <c r="D4" s="6" t="n">
         <f aca="false">B4*$F$2</f>
@@ -332,7 +332,7 @@
         <v>0.0465023050711566</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>115.0874</v>
+        <v>129.11</v>
       </c>
       <c r="D5" s="6" t="n">
         <f aca="false">B5*$F$2</f>
@@ -347,7 +347,7 @@
         <v>0.00140308679094007</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>104.15084</v>
+        <v>148.17</v>
       </c>
       <c r="D6" s="6" t="n">
         <f aca="false">B6*$F$2</f>
@@ -362,7 +362,7 @@
         <v>0.0775706554419724</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>129.13716</v>
+        <v>58.05</v>
       </c>
       <c r="D7" s="6" t="n">
         <f aca="false">B7*$F$2</f>
@@ -377,7 +377,7 @@
         <v>0.0775706554419724</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>129.11398</v>
+        <v>138.14</v>
       </c>
       <c r="D8" s="6" t="n">
         <f aca="false">B8*$F$2</f>
@@ -392,7 +392,7 @@
         <v>0.0890960112246943</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>58.05926</v>
+        <v>114.16</v>
       </c>
       <c r="D9" s="6" t="n">
         <f aca="false">B9*$F$2</f>
@@ -407,7 +407,7 @@
         <v>0.0193425536179595</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>138.14722</v>
+        <v>130.18</v>
       </c>
       <c r="D10" s="6" t="n">
         <f aca="false">B10*$F$2</f>
@@ -422,7 +422,7 @@
         <v>0.05902986570455</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>114.16558</v>
+        <v>114.16</v>
       </c>
       <c r="D11" s="6" t="n">
         <f aca="false">B11*$F$2</f>
@@ -437,7 +437,7 @@
         <v>0.0802766085387853</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>114.16558</v>
+        <v>132.2</v>
       </c>
       <c r="D12" s="6" t="n">
         <f aca="false">B12*$F$2</f>
@@ -452,7 +452,7 @@
         <v>0.0658448586891161</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>130.18816</v>
+        <v>115.1</v>
       </c>
       <c r="D13" s="6" t="n">
         <f aca="false">B13*$F$2</f>
@@ -467,7 +467,7 @@
         <v>0.0114251352976548</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>132.204</v>
+        <v>98.12</v>
       </c>
       <c r="D14" s="6" t="n">
         <f aca="false">B14*$F$2</f>
@@ -482,7 +482,7 @@
         <v>0.0376829023852475</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>148.1818</v>
+        <v>129.13</v>
       </c>
       <c r="D15" s="6" t="n">
         <f aca="false">B15*$F$2</f>
@@ -497,7 +497,7 @@
         <v>0.0422930446983363</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>97.11518</v>
+        <v>158.19</v>
       </c>
       <c r="D16" s="6" t="n">
         <f aca="false">B16*$F$2</f>
@@ -512,7 +512,7 @@
         <v>0.0534175185407897</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>88.08524</v>
+        <v>88.08</v>
       </c>
       <c r="D17" s="6" t="n">
         <f aca="false">B17*$F$2</f>
@@ -527,7 +527,7 @@
         <v>0.0558228101824013</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>102.11182</v>
+        <v>102.1</v>
       </c>
       <c r="D18" s="6" t="n">
         <f aca="false">B18*$F$2</f>
@@ -542,7 +542,7 @@
         <v>0.0065143315293646</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>187.21784</v>
+        <v>100.13</v>
       </c>
       <c r="D19" s="6" t="n">
         <f aca="false">B19*$F$2</f>
@@ -557,7 +557,7 @@
         <v>0.019643215073161</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>164.1812</v>
+        <v>187.21</v>
       </c>
       <c r="D20" s="6" t="n">
         <f aca="false">B20*$F$2</f>
@@ -572,7 +572,7 @@
         <v>0.0734616155542193</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>100.139</v>
+        <v>164.17</v>
       </c>
       <c r="D21" s="6" t="n">
         <f aca="false">B21*$F$2</f>
